--- a/biology/Botanique/Auxopus/Auxopus.xlsx
+++ b/biology/Botanique/Auxopus/Auxopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auxopus Schltr. est un genre de plantes appartenant à la famille des Orchidaceae.
 </t>
@@ -511,29 +523,31 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (24 juillet 2017) :
 Auxopus kamerunensis Schltr.
 Auxopus letouzeyi Szlach., Mytnik, Rutk., Jerch. &amp; Baranow
 Auxopus macranthus Summerh.
 Auxopus madagascariensis Schltr.
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Auxopus kamerunensis Schltr.
 Auxopus letouzeyi Szlach., Mytnik, Rutk., Jerch. &amp; Baranow
 Auxopus macranthus Summerh.
 Auxopus madagascariensis Schltr.
-Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017) :
 Auxopus kamerunensis Schltr. (1905)
 Auxopus letouzeyi Szlach., Mytnik, Rutk., Jerch. &amp; Baranow (2010)
 Auxopus macranthus Summerh. (1951 publ. 1952)
 Auxopus madagascariensis Schltr. (1924)
-Selon The Plant List            (24 juillet 2017)[5] :
+Selon The Plant List            (24 juillet 2017) :
 Auxopus kamerunensis Schltr.
 Auxopus letouzeyi Szlach., Mytnik, Rutk., Jerch. &amp; Baranow
 Auxopus macranthus Summerh.
 Auxopus madagascariensis Schltr.
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Auxopus kamerunensis Schltr.
 Auxopus macranthus Summerh.
 Auxopus madagascariensis Schltr.</t>
